--- a/Document/3_Test Case/3조 Test case.xlsx
+++ b/Document/3_Test Case/3조 Test case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D90DDC-B6BA-4D22-983A-F96DDD950B34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63861DD5-FE33-4A9B-8F70-D88056ED8991}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,20 @@
     <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId4"/>
     <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="302">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -935,10 +943,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장소 적합성 확인 - 알칼리 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장소 적합성 확인 - 알칼리 금속 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -951,10 +955,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 힐로겐이 존재할 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장소 적합성 확인 - 할로겐 추가시 해당 장소에 알칼리 금속이 존재할 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1043,18 +1043,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 장소에 Bromine을 보관할 경우 Sodium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Calcium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 장소에 Bromine을 보관할 경우 Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1065,6 +1057,156 @@
   <si>
     <t>해당 장소에 Bromine을 보관할 경우 Sodium, Calcium과 반응하여 약품이 변질될 위험이 있습니다.'를 화면에 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리 금속 추가시 해당 장소에 할로겐이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 할로겐이 존재할 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 DB 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품 별칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 이름, 별칭 입력 - 약품 등록창 확인</t>
+  </si>
+  <si>
+    <t>약품 이름 입력 - 약품 이름 입력 오류</t>
+  </si>
+  <si>
+    <t>약품 별칭 입력 - 약품 별칭 중복</t>
+  </si>
+  <si>
+    <t>약품 별칭 미입력 - 해당 약품이 기존에 존재하지 않는 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭 미입력 - 해당 약품이 기존에 존재하는 경우</t>
+  </si>
+  <si>
+    <t>보관 장소 선택 - 등록된 보관 장소가 없는 경우</t>
+  </si>
+  <si>
+    <t>보관 장소 선택 - 추천할 보관 장소가 없는 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품 등록 취소</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 고체일 때</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 액체일 때</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 기체일 때</t>
+  </si>
+  <si>
+    <t>냉장고1, 보관함1, 보관함2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>냉장고1, 보관함1, 보관함2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에탄올_한빈</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethanol_한빈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethannol</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>금_혁주</t>
+  </si>
+  <si>
+    <t>벤젠_주영</t>
+  </si>
+  <si>
+    <t>산소_영모</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>5년</t>
+  </si>
+  <si>
+    <t>약품 용량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 유효기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품 정보 등록창에 등록한 정보를 바탕으로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>존재하지 않는 약품의 이름입니다. 다시 한번 확인해주세요' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>이미 존재하는 별칭입니다. 다시 한번 확인해주세요.' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>별칭이 Ethanol1로 설정된 상태로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>별칭이 Ethanol2로 설정된 상태로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 장소가 뜨지 않고 장소 추가 메뉴만 출력된다.</t>
+  </si>
+  <si>
+    <t>추천 장소가 없습니다. 기존 장소를 선택하거나 새로 장소를 추가하여 등록해주세요.' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>유스케이스 종료</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '보관함1'이 출력된다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '냉장고1'이 출력된다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '보관함2'가 출력된다.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>냉장고1</t>
+  </si>
+  <si>
+    <t>보관함1</t>
+  </si>
+  <si>
+    <t>보관함2</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1091,6 +1233,20 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1192,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1240,10 +1396,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1410,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,6 +1441,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1580,461 +1755,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F218289-417F-4BB3-B14A-D058BACC0645}">
-  <dimension ref="B2:Q12"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="122.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="23" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="S2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="T2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="L3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="I18" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
+      <c r="P18" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" ht="34" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="K20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="Q20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="2:20" ht="34" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="G21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="J21" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="2:20" ht="34" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="I22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="K22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="Q22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="2:20" ht="34" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="2:20" ht="34" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="J24" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="2:20" ht="34" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="J25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O9" s="13" t="s">
+      <c r="Q25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="3"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" ht="34" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -2048,7 +2818,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -2061,43 +2831,43 @@
     <col min="15" max="15" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:16" ht="34.15" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="23" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:16" ht="34.15" customHeight="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -2125,11 +2895,11 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="25"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="2:16" ht="34.15" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -2168,7 +2938,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="34.15" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -2207,7 +2977,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" ht="34" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -2246,7 +3016,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="34" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -2285,7 +3055,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="34" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -2324,7 +3094,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="34" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -2363,7 +3133,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="34" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -2402,7 +3172,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="34" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -2441,7 +3211,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="34" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -2503,7 +3273,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
@@ -2519,47 +3289,47 @@
     <col min="19" max="19" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="23" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2597,11 +3367,11 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.15" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -2650,7 +3420,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" ht="34.15" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -2699,7 +3469,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" ht="34.15" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -2748,7 +3518,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" ht="34.15" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -2797,7 +3567,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" ht="34.15" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -2820,7 +3590,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" ht="34.15" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -2869,7 +3639,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" ht="34.15" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -2918,7 +3688,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" ht="34.15" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -2967,7 +3737,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" ht="34.15" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -3016,7 +3786,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" ht="34.15" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -3065,7 +3835,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" ht="34.15" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -3114,7 +3884,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="34.15" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
@@ -3163,7 +3933,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" ht="34.15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -3212,7 +3982,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" ht="34.15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
@@ -3261,7 +4031,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" ht="34.15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
@@ -3284,7 +4054,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" ht="34" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -3333,7 +4103,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" ht="34.15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -3382,7 +4152,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" ht="34.15" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -3431,7 +4201,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" ht="34.15" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -3503,7 +4273,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
@@ -3520,46 +4290,46 @@
     <col min="18" max="18" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="23" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3596,11 +4366,11 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="25"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.15" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -3648,7 +4418,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" ht="34.15" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -3696,7 +4466,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" ht="34.15" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -3744,7 +4514,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" ht="34.15" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -3792,7 +4562,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" ht="34.15" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -3840,7 +4610,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" ht="34.15" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -3888,7 +4658,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" ht="34.15" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -3936,7 +4706,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" ht="34.15" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -3984,7 +4754,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" ht="34.15" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -4032,7 +4802,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:19" ht="34.15" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -4054,7 +4824,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:19" ht="34.15" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -4127,7 +4897,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="112.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.08203125" bestFit="1" customWidth="1"/>
@@ -4141,42 +4911,42 @@
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:15" ht="34.15" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="23" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:15" ht="34.15" customHeight="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4201,11 +4971,11 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M3" s="25"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="2:15" ht="34.15" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -4241,7 +5011,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="34.15" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -4277,7 +5047,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" ht="34" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -4313,7 +5083,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="34" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -4349,7 +5119,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="34" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -4385,7 +5155,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" ht="34" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -4421,7 +5191,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="34" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -4457,7 +5227,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" ht="34" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -4493,7 +5263,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" ht="34" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -4529,7 +5299,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" ht="34" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -4565,7 +5335,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" ht="34" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -4601,7 +5371,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" ht="34" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
@@ -4637,7 +5407,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" ht="34.15" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -4673,7 +5443,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" ht="34.15" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
@@ -4709,7 +5479,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" ht="34.15" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
@@ -4727,7 +5497,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" ht="34.15" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -4745,7 +5515,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" ht="34.15" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -4781,7 +5551,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" ht="34.15" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -4817,7 +5587,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" ht="34.15" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -4853,7 +5623,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" ht="34.15" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8" t="s">
@@ -4889,7 +5659,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" ht="34.15" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
@@ -4925,7 +5695,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" ht="34.15" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -4961,7 +5731,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" ht="34.15" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
@@ -4997,7 +5767,7 @@
       <c r="N26" s="6"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" ht="34.15" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
@@ -5033,7 +5803,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" ht="34.15" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8" t="s">
@@ -5069,7 +5839,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" ht="34.15" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -5105,7 +5875,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" ht="34.15" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
@@ -5141,7 +5911,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" ht="34.15" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
@@ -5177,7 +5947,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="34.15" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8" t="s">
@@ -5213,7 +5983,7 @@
       <c r="N32" s="6"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" ht="34.15" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8" t="s">
@@ -5249,7 +6019,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" ht="34.15" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
@@ -5285,7 +6055,7 @@
       <c r="N34" s="6"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" ht="34" customHeight="1">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8" t="s">
@@ -5321,7 +6091,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" ht="34" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
@@ -5357,7 +6127,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15" ht="34" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="8" t="s">
